--- a/data/pca/factorExposure/factorExposure_2017-04-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01538957582666263</v>
+        <v>0.009962083388078209</v>
       </c>
       <c r="C2">
-        <v>-0.01803288873997991</v>
+        <v>-0.04073669344108596</v>
       </c>
       <c r="D2">
-        <v>-0.03194856223991263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02957448041523578</v>
+      </c>
+      <c r="E2">
+        <v>0.03841594246698414</v>
+      </c>
+      <c r="F2">
+        <v>-0.004355102188348552</v>
+      </c>
+      <c r="G2">
+        <v>0.104821648143873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02169260500420652</v>
+        <v>0.04151712899834825</v>
       </c>
       <c r="C3">
-        <v>0.00466803204060622</v>
+        <v>-0.1016078901699963</v>
       </c>
       <c r="D3">
-        <v>-0.09831041190448997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01763038104695994</v>
+      </c>
+      <c r="E3">
+        <v>0.1010224591497575</v>
+      </c>
+      <c r="F3">
+        <v>-0.0008851186114072126</v>
+      </c>
+      <c r="G3">
+        <v>0.1641000331419855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02680082919037568</v>
+        <v>0.05612145953830133</v>
       </c>
       <c r="C4">
-        <v>-0.007300526518357874</v>
+        <v>-0.06890203754288562</v>
       </c>
       <c r="D4">
-        <v>-0.082242692537583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02452731063767402</v>
+      </c>
+      <c r="E4">
+        <v>0.0324357745649138</v>
+      </c>
+      <c r="F4">
+        <v>-0.009376896304408456</v>
+      </c>
+      <c r="G4">
+        <v>0.09907863384597013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01247298710977853</v>
+        <v>0.03652725957119145</v>
       </c>
       <c r="C6">
-        <v>-0.009552915954805301</v>
+        <v>-0.05066435768705906</v>
       </c>
       <c r="D6">
-        <v>-0.07423155378540275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01711651870587222</v>
+      </c>
+      <c r="E6">
+        <v>0.03794785713785167</v>
+      </c>
+      <c r="F6">
+        <v>-0.005697769085896398</v>
+      </c>
+      <c r="G6">
+        <v>0.08597567493894405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.005096871321787578</v>
+        <v>0.0207677789321662</v>
       </c>
       <c r="C7">
-        <v>-0.01063547753520936</v>
+        <v>-0.03946951282202103</v>
       </c>
       <c r="D7">
-        <v>-0.03603910303503702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01399240852781315</v>
+      </c>
+      <c r="E7">
+        <v>0.007472511751426287</v>
+      </c>
+      <c r="F7">
+        <v>0.005222552832084356</v>
+      </c>
+      <c r="G7">
+        <v>0.1220151395504832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002138117032681988</v>
+        <v>0.002969846712439511</v>
       </c>
       <c r="C8">
-        <v>-0.002715905792149525</v>
+        <v>-0.02429184897391571</v>
       </c>
       <c r="D8">
-        <v>0.003648464265675092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003770474572243016</v>
+      </c>
+      <c r="E8">
+        <v>0.02991053395158994</v>
+      </c>
+      <c r="F8">
+        <v>-0.003844098189190691</v>
+      </c>
+      <c r="G8">
+        <v>0.06998155239457103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01326630915262034</v>
+        <v>0.03430467103795504</v>
       </c>
       <c r="C9">
-        <v>-0.007640025549461604</v>
+        <v>-0.0505784224671374</v>
       </c>
       <c r="D9">
-        <v>-0.05914363230434627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01637228505003325</v>
+      </c>
+      <c r="E9">
+        <v>0.02232747962025586</v>
+      </c>
+      <c r="F9">
+        <v>-0.005873299187048599</v>
+      </c>
+      <c r="G9">
+        <v>0.0994500205305504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1345543363036534</v>
+        <v>0.09938633241078119</v>
       </c>
       <c r="C10">
-        <v>0.1174299978164151</v>
+        <v>0.1837809817974171</v>
       </c>
       <c r="D10">
-        <v>0.1034340048131205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0156734720769941</v>
+      </c>
+      <c r="E10">
+        <v>0.02017166473438876</v>
+      </c>
+      <c r="F10">
+        <v>0.02246808101634063</v>
+      </c>
+      <c r="G10">
+        <v>0.05621901874102045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.00106072596461684</v>
+        <v>0.03434280322445609</v>
       </c>
       <c r="C11">
-        <v>-0.0005168752201174796</v>
+        <v>-0.05316821898327145</v>
       </c>
       <c r="D11">
-        <v>-0.05240503071847053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002513609774348731</v>
+      </c>
+      <c r="E11">
+        <v>0.01804243257804495</v>
+      </c>
+      <c r="F11">
+        <v>-0.01959824555414793</v>
+      </c>
+      <c r="G11">
+        <v>0.09118601279962446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004458360234591942</v>
+        <v>0.03599233745121601</v>
       </c>
       <c r="C12">
-        <v>-0.003885686189881142</v>
+        <v>-0.04783629004349219</v>
       </c>
       <c r="D12">
-        <v>-0.04567447872255966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006603126523959968</v>
+      </c>
+      <c r="E12">
+        <v>0.009764943751667131</v>
+      </c>
+      <c r="F12">
+        <v>-0.0007976762919110375</v>
+      </c>
+      <c r="G12">
+        <v>0.08302866640531537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01856973603448225</v>
+        <v>0.01537462120050754</v>
       </c>
       <c r="C13">
-        <v>-0.01225372794354858</v>
+        <v>-0.04180786513863802</v>
       </c>
       <c r="D13">
-        <v>-0.03437534784477834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02655460232416428</v>
+      </c>
+      <c r="E13">
+        <v>0.0384481417171668</v>
+      </c>
+      <c r="F13">
+        <v>-0.003643364406385111</v>
+      </c>
+      <c r="G13">
+        <v>0.1408916056035437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.003946858450482341</v>
+        <v>0.008183832485984921</v>
       </c>
       <c r="C14">
-        <v>-0.005763171846528975</v>
+        <v>-0.02820794813102019</v>
       </c>
       <c r="D14">
-        <v>-0.0189137215093748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01017021900704617</v>
+      </c>
+      <c r="E14">
+        <v>0.008149735820315078</v>
+      </c>
+      <c r="F14">
+        <v>0.008387431424384655</v>
+      </c>
+      <c r="G14">
+        <v>0.1064876227603699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.004625088623629578</v>
+        <v>0.03288764479401363</v>
       </c>
       <c r="C16">
-        <v>0.002724114154069404</v>
+        <v>-0.04610734733428286</v>
       </c>
       <c r="D16">
-        <v>-0.04056981916258272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002015334242362519</v>
+      </c>
+      <c r="E16">
+        <v>0.01589985453208327</v>
+      </c>
+      <c r="F16">
+        <v>-0.001083749800906372</v>
+      </c>
+      <c r="G16">
+        <v>0.09305543016269513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01300871834374321</v>
+        <v>0.02311143611448979</v>
       </c>
       <c r="C19">
-        <v>-0.006220059769753119</v>
+        <v>-0.05146442154137252</v>
       </c>
       <c r="D19">
-        <v>-0.0373884877150225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01922325218897653</v>
+      </c>
+      <c r="E19">
+        <v>0.0808877087889931</v>
+      </c>
+      <c r="F19">
+        <v>-0.01800974907808825</v>
+      </c>
+      <c r="G19">
+        <v>0.1390405777119317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.005453226659878674</v>
+        <v>0.01545351030653033</v>
       </c>
       <c r="C20">
-        <v>-0.009275688187615769</v>
+        <v>-0.0417127756610525</v>
       </c>
       <c r="D20">
-        <v>-0.03345564681706971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01425563281409784</v>
+      </c>
+      <c r="E20">
+        <v>0.03899362976396981</v>
+      </c>
+      <c r="F20">
+        <v>0.01339454013518023</v>
+      </c>
+      <c r="G20">
+        <v>0.1117990816240608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01341252599407865</v>
+        <v>0.01234327445822318</v>
       </c>
       <c r="C21">
-        <v>-0.005722523439704719</v>
+        <v>-0.0380691130932607</v>
       </c>
       <c r="D21">
-        <v>-0.02034291932629118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01920372806077104</v>
+      </c>
+      <c r="E21">
+        <v>0.05104845139910063</v>
+      </c>
+      <c r="F21">
+        <v>0.002033844800193002</v>
+      </c>
+      <c r="G21">
+        <v>0.1386174581969268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001389991632839961</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0001821058624007658</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0006255442797428212</v>
+      </c>
+      <c r="E22">
+        <v>0.004410639717790824</v>
+      </c>
+      <c r="F22">
+        <v>-0.001760813322650925</v>
+      </c>
+      <c r="G22">
+        <v>0.006193872621441248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001395542620166444</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0001938055678799057</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.000624383857804245</v>
+      </c>
+      <c r="E23">
+        <v>0.004397674435300845</v>
+      </c>
+      <c r="F23">
+        <v>-0.001767123646722609</v>
+      </c>
+      <c r="G23">
+        <v>0.006086776019569395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0006802068670146215</v>
+        <v>0.02809390318155766</v>
       </c>
       <c r="C24">
-        <v>-0.007555885285676861</v>
+        <v>-0.05077362626605051</v>
       </c>
       <c r="D24">
-        <v>-0.0454110697826707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.00734982540157098</v>
+      </c>
+      <c r="E24">
+        <v>0.01296013431682967</v>
+      </c>
+      <c r="F24">
+        <v>-0.01133432704855639</v>
+      </c>
+      <c r="G24">
+        <v>0.09150808172102941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01572241370675923</v>
+        <v>0.04214909256072443</v>
       </c>
       <c r="C25">
-        <v>-0.0009663651006292207</v>
+        <v>-0.05790075745881645</v>
       </c>
       <c r="D25">
-        <v>-0.05835978548946137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01136467148708518</v>
+      </c>
+      <c r="E25">
+        <v>0.005182195371798929</v>
+      </c>
+      <c r="F25">
+        <v>-0.00456391955120481</v>
+      </c>
+      <c r="G25">
+        <v>0.09980150463403345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01472601193508367</v>
+        <v>0.01388855044445359</v>
       </c>
       <c r="C26">
-        <v>-0.01628656694813096</v>
+        <v>-0.01281993173775783</v>
       </c>
       <c r="D26">
-        <v>-0.00148329271026937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02421083710605574</v>
+      </c>
+      <c r="E26">
+        <v>0.009028315783305832</v>
+      </c>
+      <c r="F26">
+        <v>0.008207817658713423</v>
+      </c>
+      <c r="G26">
+        <v>0.08246236278633219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1861100282694769</v>
+        <v>0.1261726112966419</v>
       </c>
       <c r="C28">
-        <v>0.1435716940562803</v>
+        <v>0.2408678353295309</v>
       </c>
       <c r="D28">
-        <v>0.1350741216646573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006656846881990525</v>
+      </c>
+      <c r="E28">
+        <v>0.009580423468643401</v>
+      </c>
+      <c r="F28">
+        <v>0.01560421075566079</v>
+      </c>
+      <c r="G28">
+        <v>0.04932700736197461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01014112574942421</v>
+        <v>0.00886163370797988</v>
       </c>
       <c r="C29">
-        <v>-0.0002964956894007361</v>
+        <v>-0.02249630621502412</v>
       </c>
       <c r="D29">
-        <v>-0.01819621534706494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009274267262547514</v>
+      </c>
+      <c r="E29">
+        <v>0.005447171660414964</v>
+      </c>
+      <c r="F29">
+        <v>0.01504636775992114</v>
+      </c>
+      <c r="G29">
+        <v>0.097626951494711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01170330738073368</v>
+        <v>0.04158716015979896</v>
       </c>
       <c r="C30">
-        <v>-0.02214130226296436</v>
+        <v>-0.06909019917749026</v>
       </c>
       <c r="D30">
-        <v>-0.09746489870483908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02896861837509193</v>
+      </c>
+      <c r="E30">
+        <v>0.06039978371126612</v>
+      </c>
+      <c r="F30">
+        <v>-0.04317884586494633</v>
+      </c>
+      <c r="G30">
+        <v>0.1348261538105714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0242236412102548</v>
+        <v>0.0529488840282054</v>
       </c>
       <c r="C31">
-        <v>0.01340949067855338</v>
+        <v>-0.0380912463733063</v>
       </c>
       <c r="D31">
-        <v>-0.02897950503911049</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003816519576546233</v>
+      </c>
+      <c r="E31">
+        <v>0.0002444786469852495</v>
+      </c>
+      <c r="F31">
+        <v>0.04086154242464395</v>
+      </c>
+      <c r="G31">
+        <v>0.09840811419912426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0008138401723554259</v>
+        <v>0.002618257576680329</v>
       </c>
       <c r="C32">
-        <v>0.01134406712388672</v>
+        <v>-0.02326899516008055</v>
       </c>
       <c r="D32">
-        <v>0.002150446655095983</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002951727664478455</v>
+      </c>
+      <c r="E32">
+        <v>0.03446449327377691</v>
+      </c>
+      <c r="F32">
+        <v>-0.04205059985020022</v>
+      </c>
+      <c r="G32">
+        <v>0.08776388662346002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.007519180526083282</v>
+        <v>0.02844548599055429</v>
       </c>
       <c r="C33">
-        <v>-0.008402345350971027</v>
+        <v>-0.05050447720046226</v>
       </c>
       <c r="D33">
-        <v>-0.04130693331349342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01568103640533142</v>
+      </c>
+      <c r="E33">
+        <v>0.04391078916194035</v>
+      </c>
+      <c r="F33">
+        <v>-0.01426917331742539</v>
+      </c>
+      <c r="G33">
+        <v>0.1620745066916832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.007538938874245731</v>
+        <v>0.03956303858868188</v>
       </c>
       <c r="C34">
-        <v>0.01320577201165246</v>
+        <v>-0.05938686347830536</v>
       </c>
       <c r="D34">
-        <v>-0.05487226756559977</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0044162927251354</v>
+      </c>
+      <c r="E34">
+        <v>0.008146841204489223</v>
+      </c>
+      <c r="F34">
+        <v>-0.02039885658031708</v>
+      </c>
+      <c r="G34">
+        <v>0.09460533294817364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0153266185079836</v>
+        <v>0.01638124944573315</v>
       </c>
       <c r="C36">
-        <v>-0.001014245845515398</v>
+        <v>-0.009524283595480132</v>
       </c>
       <c r="D36">
-        <v>-0.005482106297082383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01253386356786816</v>
+      </c>
+      <c r="E36">
+        <v>0.008936215044735935</v>
+      </c>
+      <c r="F36">
+        <v>0.008383024254300181</v>
+      </c>
+      <c r="G36">
+        <v>0.09210895524434426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01342059427612463</v>
+        <v>0.03129769804092029</v>
       </c>
       <c r="C38">
-        <v>0.02031587790305392</v>
+        <v>-0.0303674851095777</v>
       </c>
       <c r="D38">
-        <v>-0.03744355379331665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007411518383854274</v>
+      </c>
+      <c r="E38">
+        <v>0.00757139723136921</v>
+      </c>
+      <c r="F38">
+        <v>0.0188665681715772</v>
+      </c>
+      <c r="G38">
+        <v>0.08679790468116814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01004034168898999</v>
+        <v>0.03646753495311231</v>
       </c>
       <c r="C39">
-        <v>-0.02003129551310157</v>
+        <v>-0.07982429872081544</v>
       </c>
       <c r="D39">
-        <v>-0.09799526185689623</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01182625607733198</v>
+      </c>
+      <c r="E39">
+        <v>0.02966462509338558</v>
+      </c>
+      <c r="F39">
+        <v>-0.02212741479508518</v>
+      </c>
+      <c r="G39">
+        <v>0.09142880437426794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01528046291841669</v>
+        <v>0.01329289620718875</v>
       </c>
       <c r="C40">
-        <v>-0.001114320956214609</v>
+        <v>-0.03905094791492723</v>
       </c>
       <c r="D40">
-        <v>-0.03013590634908061</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01477687519849685</v>
+      </c>
+      <c r="E40">
+        <v>0.03218331008741064</v>
+      </c>
+      <c r="F40">
+        <v>0.00789708313283693</v>
+      </c>
+      <c r="G40">
+        <v>0.1246917338155958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01534007063526278</v>
+        <v>0.02054629905069162</v>
       </c>
       <c r="C41">
-        <v>0.008619421886218283</v>
+        <v>-0.002700960395624669</v>
       </c>
       <c r="D41">
-        <v>0.008984221047478208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004500819679907613</v>
+      </c>
+      <c r="E41">
+        <v>0.008122839947764705</v>
+      </c>
+      <c r="F41">
+        <v>0.01578496834558988</v>
+      </c>
+      <c r="G41">
+        <v>0.08562523878971838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0473214732755621</v>
+        <v>0.009589318127782328</v>
       </c>
       <c r="C42">
-        <v>-0.0820463387939846</v>
+        <v>-0.0328788779234734</v>
       </c>
       <c r="D42">
-        <v>-0.1383338545813851</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08902168837939256</v>
+      </c>
+      <c r="E42">
+        <v>0.01874311477448824</v>
+      </c>
+      <c r="F42">
+        <v>0.04378476020801905</v>
+      </c>
+      <c r="G42">
+        <v>-0.02248081961735516</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0159358853090769</v>
+        <v>0.0351946146460559</v>
       </c>
       <c r="C43">
-        <v>0.008093433001875724</v>
+        <v>-0.01844943741865944</v>
       </c>
       <c r="D43">
-        <v>0.01102875524788531</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005886660096090154</v>
+      </c>
+      <c r="E43">
+        <v>0.02075457737187032</v>
+      </c>
+      <c r="F43">
+        <v>0.008094934631819367</v>
+      </c>
+      <c r="G43">
+        <v>0.1190640640277437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0008886774610602713</v>
+        <v>0.01346445218942564</v>
       </c>
       <c r="C44">
-        <v>-0.003037690361455694</v>
+        <v>-0.05964976712979916</v>
       </c>
       <c r="D44">
-        <v>-0.04969665280142823</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007048727334038919</v>
+      </c>
+      <c r="E44">
+        <v>0.02601948034090786</v>
+      </c>
+      <c r="F44">
+        <v>0.00484549831312642</v>
+      </c>
+      <c r="G44">
+        <v>0.1110405255002206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.008907274472475336</v>
+        <v>0.008423590397386984</v>
       </c>
       <c r="C46">
-        <v>-0.004986302405126007</v>
+        <v>-0.01408455578004202</v>
       </c>
       <c r="D46">
-        <v>0.004771856475786952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01259213216285236</v>
+      </c>
+      <c r="E46">
+        <v>0.001885436771579399</v>
+      </c>
+      <c r="F46">
+        <v>0.01566130286748958</v>
+      </c>
+      <c r="G46">
+        <v>0.1068221509543991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02085619521803164</v>
+        <v>0.07735891249263009</v>
       </c>
       <c r="C47">
-        <v>0.01890002993859525</v>
+        <v>-0.06904321055029655</v>
       </c>
       <c r="D47">
-        <v>-0.0730952879594931</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004800943111403554</v>
+      </c>
+      <c r="E47">
+        <v>-0.004963108651107551</v>
+      </c>
+      <c r="F47">
+        <v>0.05383562284447303</v>
+      </c>
+      <c r="G47">
+        <v>0.083931170176869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008837960526768581</v>
+        <v>0.01886363805941605</v>
       </c>
       <c r="C48">
-        <v>0.005873020657997674</v>
+        <v>-0.01300724673245769</v>
       </c>
       <c r="D48">
-        <v>-0.0153294093609939</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002267558150554571</v>
+      </c>
+      <c r="E48">
+        <v>0.005752027190630257</v>
+      </c>
+      <c r="F48">
+        <v>0.02013723628515493</v>
+      </c>
+      <c r="G48">
+        <v>0.09715110003859626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03083354435209467</v>
+        <v>0.07534819406402794</v>
       </c>
       <c r="C50">
-        <v>0.02496626156858124</v>
+        <v>-0.07194880379347515</v>
       </c>
       <c r="D50">
-        <v>-0.06897192318758039</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002249530554697252</v>
+      </c>
+      <c r="E50">
+        <v>-0.002820130333605522</v>
+      </c>
+      <c r="F50">
+        <v>0.05619101588746293</v>
+      </c>
+      <c r="G50">
+        <v>0.09194980378911299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.005099851284134654</v>
+        <v>0.01393078972393889</v>
       </c>
       <c r="C51">
-        <v>-0.003252764661313107</v>
+        <v>-0.03661137544514564</v>
       </c>
       <c r="D51">
-        <v>-0.01780215105465384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01068881973505829</v>
+      </c>
+      <c r="E51">
+        <v>0.02730506067347189</v>
+      </c>
+      <c r="F51">
+        <v>-0.02302461113176982</v>
+      </c>
+      <c r="G51">
+        <v>0.1227953919269587</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.03533455670574941</v>
+        <v>0.08161453214372921</v>
       </c>
       <c r="C53">
-        <v>0.02811161310293693</v>
+        <v>-0.08525037089257197</v>
       </c>
       <c r="D53">
-        <v>-0.1286209456309054</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003500999758908701</v>
+      </c>
+      <c r="E53">
+        <v>-0.02398577396834908</v>
+      </c>
+      <c r="F53">
+        <v>0.06563228184075863</v>
+      </c>
+      <c r="G53">
+        <v>0.09212975062023661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01454252542556802</v>
+        <v>0.03152848010938436</v>
       </c>
       <c r="C54">
-        <v>0.01586211522899019</v>
+        <v>-0.01918319626526326</v>
       </c>
       <c r="D54">
-        <v>0.00331917248411309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001252171696147462</v>
+      </c>
+      <c r="E54">
+        <v>0.01830114836934036</v>
+      </c>
+      <c r="F54">
+        <v>0.006324262717353497</v>
+      </c>
+      <c r="G54">
+        <v>0.1068867553293399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.01821594054716797</v>
+        <v>0.07166343364287142</v>
       </c>
       <c r="C55">
-        <v>0.01541142977951865</v>
+        <v>-0.0681298306058897</v>
       </c>
       <c r="D55">
-        <v>-0.09951716756467942</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005083065989522889</v>
+      </c>
+      <c r="E55">
+        <v>-0.02286626909058797</v>
+      </c>
+      <c r="F55">
+        <v>0.06459477888709932</v>
+      </c>
+      <c r="G55">
+        <v>0.06903627135711619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.03883898687435292</v>
+        <v>0.1358126200138465</v>
       </c>
       <c r="C56">
-        <v>0.03557035210106659</v>
+        <v>-0.107781457791345</v>
       </c>
       <c r="D56">
-        <v>-0.1571553184368881</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01248431789068774</v>
+      </c>
+      <c r="E56">
+        <v>-0.03227338380495528</v>
+      </c>
+      <c r="F56">
+        <v>0.08271489009151145</v>
+      </c>
+      <c r="G56">
+        <v>0.0425128961464269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02032597138498292</v>
+        <v>0.005822932192775489</v>
       </c>
       <c r="C57">
-        <v>-0.01252957270771916</v>
+        <v>-0.006466729332005506</v>
       </c>
       <c r="D57">
-        <v>-0.03063255831639112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0228519436697994</v>
+      </c>
+      <c r="E57">
+        <v>0.02494859526764634</v>
+      </c>
+      <c r="F57">
+        <v>-0.008585031322525376</v>
+      </c>
+      <c r="G57">
+        <v>0.02420984786001706</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01528594610166546</v>
+        <v>0.05331916840857846</v>
       </c>
       <c r="C58">
-        <v>0.009216322301290976</v>
+        <v>-0.04294175246622321</v>
       </c>
       <c r="D58">
-        <v>-0.127061758831942</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01977985558191766</v>
+      </c>
+      <c r="E58">
+        <v>0.9136247533468719</v>
+      </c>
+      <c r="F58">
+        <v>0.2635776163970416</v>
+      </c>
+      <c r="G58">
+        <v>-0.2334814704679508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2066743228422691</v>
+        <v>0.1604738330171079</v>
       </c>
       <c r="C59">
-        <v>0.1656117243434998</v>
+        <v>0.2052824319592789</v>
       </c>
       <c r="D59">
-        <v>0.110704301610368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01171935759306822</v>
+      </c>
+      <c r="E59">
+        <v>0.01785752995769451</v>
+      </c>
+      <c r="F59">
+        <v>0.003046574003560419</v>
+      </c>
+      <c r="G59">
+        <v>0.04167649785080419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1788957488075479</v>
+        <v>0.2888882614655836</v>
       </c>
       <c r="C60">
-        <v>0.1186168048984832</v>
+        <v>-0.1095592851330868</v>
       </c>
       <c r="D60">
-        <v>-0.1434781254244235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01173264903850434</v>
+      </c>
+      <c r="E60">
+        <v>-0.003308520310029668</v>
+      </c>
+      <c r="F60">
+        <v>-0.3401281652522068</v>
+      </c>
+      <c r="G60">
+        <v>-0.1592717331226943</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001828947064150484</v>
+        <v>0.03896848374464228</v>
       </c>
       <c r="C61">
-        <v>-0.002999827915986764</v>
+        <v>-0.06556080040668277</v>
       </c>
       <c r="D61">
-        <v>-0.07259141996906592</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005535370371022464</v>
+      </c>
+      <c r="E61">
+        <v>0.02388998679390293</v>
+      </c>
+      <c r="F61">
+        <v>-0.01301034377961941</v>
+      </c>
+      <c r="G61">
+        <v>0.09658579227624325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.006085751311481464</v>
+        <v>0.01594814026765609</v>
       </c>
       <c r="C63">
-        <v>-0.004542409926387134</v>
+        <v>-0.03066337586876007</v>
       </c>
       <c r="D63">
-        <v>-0.02557090898178405</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.00843818696155463</v>
+      </c>
+      <c r="E63">
+        <v>0.003526593965936895</v>
+      </c>
+      <c r="F63">
+        <v>0.01812198048536316</v>
+      </c>
+      <c r="G63">
+        <v>0.09151376822788181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02629800445565369</v>
+        <v>0.04877052237189269</v>
       </c>
       <c r="C64">
-        <v>0.01409754915059447</v>
+        <v>-0.04775712753316248</v>
       </c>
       <c r="D64">
-        <v>-0.05975837421754612</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006577971032061328</v>
+      </c>
+      <c r="E64">
+        <v>0.009231900047782187</v>
+      </c>
+      <c r="F64">
+        <v>-0.008266052428044273</v>
+      </c>
+      <c r="G64">
+        <v>0.101496137013232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02920009289110573</v>
+        <v>0.07542288923223493</v>
       </c>
       <c r="C65">
-        <v>0.0006632579576137515</v>
+        <v>-0.05798394510145416</v>
       </c>
       <c r="D65">
-        <v>-0.1133923306012767</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01665152220001332</v>
+      </c>
+      <c r="E65">
+        <v>0.03934418329403822</v>
+      </c>
+      <c r="F65">
+        <v>-0.02724626156965971</v>
+      </c>
+      <c r="G65">
+        <v>0.04371902429014217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.007070374449881392</v>
+        <v>0.05101724799625515</v>
       </c>
       <c r="C66">
-        <v>-0.01737753566706186</v>
+        <v>-0.1066950211780438</v>
       </c>
       <c r="D66">
-        <v>-0.135030530793418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01172086764528142</v>
+      </c>
+      <c r="E66">
+        <v>0.04094503870649979</v>
+      </c>
+      <c r="F66">
+        <v>-0.03332586924135852</v>
+      </c>
+      <c r="G66">
+        <v>0.1050658714794491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.03261372540313071</v>
+        <v>0.05394645630687602</v>
       </c>
       <c r="C67">
-        <v>0.03132357045418158</v>
+        <v>-0.03396865530456375</v>
       </c>
       <c r="D67">
-        <v>-0.05692923661179858</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005883118098071914</v>
+      </c>
+      <c r="E67">
+        <v>-0.001536055536647672</v>
+      </c>
+      <c r="F67">
+        <v>0.01794472653441885</v>
+      </c>
+      <c r="G67">
+        <v>0.07456843910346257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.212184017885455</v>
+        <v>0.1559240174662639</v>
       </c>
       <c r="C68">
-        <v>0.1460752248543485</v>
+        <v>0.2692663369133281</v>
       </c>
       <c r="D68">
-        <v>0.1672861848631259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005396107080205135</v>
+      </c>
+      <c r="E68">
+        <v>0.01138951001231306</v>
+      </c>
+      <c r="F68">
+        <v>0.03732291272609652</v>
+      </c>
+      <c r="G68">
+        <v>0.03040828746639731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.02840996182535813</v>
+        <v>0.08260771907114876</v>
       </c>
       <c r="C69">
-        <v>0.02984957206474061</v>
+        <v>-0.07044015419133852</v>
       </c>
       <c r="D69">
-        <v>-0.07668118435912571</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008872159855508658</v>
+      </c>
+      <c r="E69">
+        <v>-0.02027987837032515</v>
+      </c>
+      <c r="F69">
+        <v>0.03892635306043342</v>
+      </c>
+      <c r="G69">
+        <v>0.1008092847805245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1720495357638649</v>
+        <v>0.1415925136486367</v>
       </c>
       <c r="C71">
-        <v>0.126704505826236</v>
+        <v>0.2302870758048027</v>
       </c>
       <c r="D71">
-        <v>0.1190234340098602</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003193558992436378</v>
+      </c>
+      <c r="E71">
+        <v>0.03167923884281546</v>
+      </c>
+      <c r="F71">
+        <v>0.02553783820009338</v>
+      </c>
+      <c r="G71">
+        <v>0.07140467232979107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.01204807034870267</v>
+        <v>0.08453811196738402</v>
       </c>
       <c r="C72">
-        <v>0.01661120042871835</v>
+        <v>-0.06873530603973271</v>
       </c>
       <c r="D72">
-        <v>-0.1041615055444974</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008198399360242095</v>
+      </c>
+      <c r="E72">
+        <v>-0.008991454025725286</v>
+      </c>
+      <c r="F72">
+        <v>-0.03617480007892748</v>
+      </c>
+      <c r="G72">
+        <v>0.08769575575038242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.213858235185434</v>
+        <v>0.3773968407779251</v>
       </c>
       <c r="C73">
-        <v>0.1339991255683355</v>
+        <v>-0.1187017233454177</v>
       </c>
       <c r="D73">
-        <v>-0.2741738362700546</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02093206222922741</v>
+      </c>
+      <c r="E73">
+        <v>0.0746926447593502</v>
+      </c>
+      <c r="F73">
+        <v>-0.5834829482301507</v>
+      </c>
+      <c r="G73">
+        <v>-0.2878402750289501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.04101946866455191</v>
+        <v>0.1044840816364904</v>
       </c>
       <c r="C74">
-        <v>0.03922839810252304</v>
+        <v>-0.1096457547272918</v>
       </c>
       <c r="D74">
-        <v>-0.1697741188196161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009474175666765037</v>
+      </c>
+      <c r="E74">
+        <v>-0.007256052060339782</v>
+      </c>
+      <c r="F74">
+        <v>0.07037954206984012</v>
+      </c>
+      <c r="G74">
+        <v>0.08180250362732561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1025716531583293</v>
+        <v>0.2466355251285998</v>
       </c>
       <c r="C75">
-        <v>0.093110582608154</v>
+        <v>-0.1536303577762389</v>
       </c>
       <c r="D75">
-        <v>-0.305363158481659</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03073132851442043</v>
+      </c>
+      <c r="E75">
+        <v>-0.06675763347122358</v>
+      </c>
+      <c r="F75">
+        <v>0.1679973984645397</v>
+      </c>
+      <c r="G75">
+        <v>-0.0225601207076872</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.05027147319242994</v>
+        <v>0.1184361656505101</v>
       </c>
       <c r="C76">
-        <v>0.05363177573786386</v>
+        <v>-0.1095258128874532</v>
       </c>
       <c r="D76">
-        <v>-0.2116773509824618</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01793684608789648</v>
+      </c>
+      <c r="E76">
+        <v>-0.0245061470079943</v>
+      </c>
+      <c r="F76">
+        <v>0.1054430563275993</v>
+      </c>
+      <c r="G76">
+        <v>0.06000009691163243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01620999830541</v>
+        <v>0.07080020506077848</v>
       </c>
       <c r="C77">
-        <v>-0.0003732567980583613</v>
+        <v>-0.06073049116918403</v>
       </c>
       <c r="D77">
-        <v>-0.07798362713915098</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01039047598384897</v>
+      </c>
+      <c r="E77">
+        <v>0.04969100848150352</v>
+      </c>
+      <c r="F77">
+        <v>-0.01357255966463646</v>
+      </c>
+      <c r="G77">
+        <v>0.06307463955471909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006787498898983767</v>
+        <v>0.04269301599961622</v>
       </c>
       <c r="C78">
-        <v>0.0003882902459634678</v>
+        <v>-0.0494850532292249</v>
       </c>
       <c r="D78">
-        <v>-0.06481971312727051</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005782855219719848</v>
+      </c>
+      <c r="E78">
+        <v>0.02873691445352882</v>
+      </c>
+      <c r="F78">
+        <v>-0.0344949318575429</v>
+      </c>
+      <c r="G78">
+        <v>0.1036219184687582</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0001954485296314286</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001789581166682791</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1.883060769584184e-05</v>
+      </c>
+      <c r="E79">
+        <v>0.0009706961491667104</v>
+      </c>
+      <c r="F79">
+        <v>-0.0006671391769964654</v>
+      </c>
+      <c r="G79">
+        <v>-0.0006659466907951748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0322218081531029</v>
+        <v>0.0429863026553843</v>
       </c>
       <c r="C80">
-        <v>0.01024581442656178</v>
+        <v>-0.05140633539019086</v>
       </c>
       <c r="D80">
-        <v>-0.07763285977982018</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01322383228509544</v>
+      </c>
+      <c r="E80">
+        <v>0.02646008149836999</v>
+      </c>
+      <c r="F80">
+        <v>-0.009744000610866731</v>
+      </c>
+      <c r="G80">
+        <v>0.05360843053123148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.06036071247467664</v>
+        <v>0.1365561483600702</v>
       </c>
       <c r="C81">
-        <v>0.05365352298122254</v>
+        <v>-0.09606866450346693</v>
       </c>
       <c r="D81">
-        <v>-0.1704636594596616</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01464626940724238</v>
+      </c>
+      <c r="E81">
+        <v>-0.03231204985371075</v>
+      </c>
+      <c r="F81">
+        <v>0.1263052450265766</v>
+      </c>
+      <c r="G81">
+        <v>0.02072889716163545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1338053120647574</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08179022980794294</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009506904460860175</v>
+      </c>
+      <c r="E82">
+        <v>-0.1005149726256737</v>
+      </c>
+      <c r="F82">
+        <v>0.05131791124282845</v>
+      </c>
+      <c r="G82">
+        <v>0.06113267200399623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01333737904402693</v>
+        <v>0.03635211011140979</v>
       </c>
       <c r="C83">
-        <v>0.005187906445395565</v>
+        <v>-0.02863944124759709</v>
       </c>
       <c r="D83">
-        <v>-0.02330984167341654</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006022074265588095</v>
+      </c>
+      <c r="E83">
+        <v>0.03035880331498219</v>
+      </c>
+      <c r="F83">
+        <v>-0.02905290821797116</v>
+      </c>
+      <c r="G83">
+        <v>0.06322737804654789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.09188054386208684</v>
+        <v>0.2106304027959825</v>
       </c>
       <c r="C85">
-        <v>0.06942442751852716</v>
+        <v>-0.1482457769527548</v>
       </c>
       <c r="D85">
-        <v>-0.2758273638889914</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01672208694983943</v>
+      </c>
+      <c r="E85">
+        <v>-0.1014444579242885</v>
+      </c>
+      <c r="F85">
+        <v>0.121064257515873</v>
+      </c>
+      <c r="G85">
+        <v>-0.06445812741829589</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01406391446639947</v>
+        <v>0.01446758611965668</v>
       </c>
       <c r="C86">
-        <v>0.004718550139227819</v>
+        <v>-0.02436118315899665</v>
       </c>
       <c r="D86">
-        <v>-0.03722663761757391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01132336554110379</v>
+      </c>
+      <c r="E86">
+        <v>0.05176736561160965</v>
+      </c>
+      <c r="F86">
+        <v>-0.01760541370734954</v>
+      </c>
+      <c r="G86">
+        <v>0.1938501072392799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.00455833531044834</v>
+        <v>0.02126475059356811</v>
       </c>
       <c r="C87">
-        <v>-0.0145878890670149</v>
+        <v>-0.02062817451922484</v>
       </c>
       <c r="D87">
-        <v>-0.02995121280701486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0120059050295266</v>
+      </c>
+      <c r="E87">
+        <v>0.09584437643275977</v>
+      </c>
+      <c r="F87">
+        <v>-0.008353132142239131</v>
+      </c>
+      <c r="G87">
+        <v>0.1236893403814077</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04822454120703928</v>
+        <v>0.09372209772472173</v>
       </c>
       <c r="C88">
-        <v>0.008481838509329473</v>
+        <v>-0.06909541614217891</v>
       </c>
       <c r="D88">
-        <v>-0.04728988062534392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0223153002414465</v>
+      </c>
+      <c r="E88">
+        <v>-0.004458335977803081</v>
+      </c>
+      <c r="F88">
+        <v>0.02229636334285505</v>
+      </c>
+      <c r="G88">
+        <v>0.1016661656240763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3216987574903322</v>
+        <v>0.2336842493125667</v>
       </c>
       <c r="C89">
-        <v>0.2333824355453249</v>
+        <v>0.3678381326339671</v>
       </c>
       <c r="D89">
-        <v>0.2015831949747984</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.000456045099350699</v>
+      </c>
+      <c r="E89">
+        <v>-0.01888044729048068</v>
+      </c>
+      <c r="F89">
+        <v>0.02641298054337349</v>
+      </c>
+      <c r="G89">
+        <v>0.07025449701483462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.263492149604777</v>
+        <v>0.2083574143457287</v>
       </c>
       <c r="C90">
-        <v>0.195241590944299</v>
+        <v>0.3160326870183301</v>
       </c>
       <c r="D90">
-        <v>0.1764923166534802</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004772816506909014</v>
+      </c>
+      <c r="E90">
+        <v>0.0004219885198650236</v>
+      </c>
+      <c r="F90">
+        <v>0.04811476173516994</v>
+      </c>
+      <c r="G90">
+        <v>0.04234599285526996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.08773992898826799</v>
+        <v>0.1840654834848145</v>
       </c>
       <c r="C91">
-        <v>0.08237247220616595</v>
+        <v>-0.1419478239031646</v>
       </c>
       <c r="D91">
-        <v>-0.2304169149245318</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02179119169902212</v>
+      </c>
+      <c r="E91">
+        <v>-0.06222285179870314</v>
+      </c>
+      <c r="F91">
+        <v>0.1423194486244039</v>
+      </c>
+      <c r="G91">
+        <v>0.03364276389600451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2214026692146232</v>
+        <v>0.2002792221179019</v>
       </c>
       <c r="C92">
-        <v>0.2014933743472664</v>
+        <v>0.2565520685159213</v>
       </c>
       <c r="D92">
-        <v>0.08732733238121189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03830968982468501</v>
+      </c>
+      <c r="E92">
+        <v>0.04176233976534923</v>
+      </c>
+      <c r="F92">
+        <v>0.05954261383467439</v>
+      </c>
+      <c r="G92">
+        <v>0.1123899147275103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2784622792661376</v>
+        <v>0.2320006268238866</v>
       </c>
       <c r="C93">
-        <v>0.2128780052955184</v>
+        <v>0.3127722861881636</v>
       </c>
       <c r="D93">
-        <v>0.1516181617843099</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01154360080876387</v>
+      </c>
+      <c r="E93">
+        <v>0.00389500820812912</v>
+      </c>
+      <c r="F93">
+        <v>0.04362607218041541</v>
+      </c>
+      <c r="G93">
+        <v>0.05855665896501951</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1412366211838626</v>
+        <v>0.3182475343528298</v>
       </c>
       <c r="C94">
-        <v>0.09846756915619473</v>
+        <v>-0.1806837603938754</v>
       </c>
       <c r="D94">
-        <v>-0.297063696858834</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01844704313072722</v>
+      </c>
+      <c r="E94">
+        <v>-0.2128220418789464</v>
+      </c>
+      <c r="F94">
+        <v>0.4774811150164497</v>
+      </c>
+      <c r="G94">
+        <v>-0.4130172373374144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.002408177339439998</v>
+        <v>0.1003916031805442</v>
       </c>
       <c r="C95">
-        <v>0.01041745881389512</v>
+        <v>-0.08818845947005013</v>
       </c>
       <c r="D95">
-        <v>-0.1255406830106411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009940756473528723</v>
+      </c>
+      <c r="E95">
+        <v>0.08494143694824917</v>
+      </c>
+      <c r="F95">
+        <v>-0.1864509940888412</v>
+      </c>
+      <c r="G95">
+        <v>0.01192533290220879</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1237213825305655</v>
+        <v>0.1953479788433133</v>
       </c>
       <c r="C98">
-        <v>0.1109234294037691</v>
+        <v>-0.04587564007324936</v>
       </c>
       <c r="D98">
-        <v>-0.1231897138170756</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01346928303397861</v>
+      </c>
+      <c r="E98">
+        <v>0.0691530596900823</v>
+      </c>
+      <c r="F98">
+        <v>-0.2388208136520704</v>
+      </c>
+      <c r="G98">
+        <v>-0.02662634483471694</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009879497585028976</v>
+        <v>0.008644239467384183</v>
       </c>
       <c r="C101">
-        <v>-0.0003033034002578382</v>
+        <v>-0.02252118677277741</v>
       </c>
       <c r="D101">
-        <v>-0.01814122725355546</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009117472444832155</v>
+      </c>
+      <c r="E101">
+        <v>0.005268158750416437</v>
+      </c>
+      <c r="F101">
+        <v>0.01599808460520443</v>
+      </c>
+      <c r="G101">
+        <v>0.09663848655694254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.05379751423742734</v>
+        <v>0.1153728893760654</v>
       </c>
       <c r="C102">
-        <v>0.03201945622330483</v>
+        <v>-0.08418737721521492</v>
       </c>
       <c r="D102">
-        <v>-0.1372241586983208</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0007880330395474447</v>
+      </c>
+      <c r="E102">
+        <v>-0.03498810420744495</v>
+      </c>
+      <c r="F102">
+        <v>0.04294405226999801</v>
+      </c>
+      <c r="G102">
+        <v>0.01114353321103827</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.5993722428407748</v>
+        <v>0.02121858260239283</v>
       </c>
       <c r="C104">
-        <v>-0.7889827703771224</v>
+        <v>0.03039465657593308</v>
       </c>
       <c r="D104">
-        <v>0.02945700268138876</v>
+        <v>-0.9879220679707955</v>
+      </c>
+      <c r="E104">
+        <v>-0.04800763570367611</v>
+      </c>
+      <c r="F104">
+        <v>0.03488071696057071</v>
+      </c>
+      <c r="G104">
+        <v>-0.04008087677621647</v>
       </c>
     </row>
   </sheetData>
